--- a/database/pictures_INSERT.xlsx
+++ b/database/pictures_INSERT.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="132" windowWidth="16392" windowHeight="5808"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="16395" windowHeight="5805"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$E$1:$H$65</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t>theme</t>
   </si>
@@ -127,6 +130,9 @@
   </si>
   <si>
     <t>shutterstock_57393118-(1).jpg</t>
+  </si>
+  <si>
+    <t>landscapes</t>
   </si>
 </sst>
 </file>
@@ -205,10 +211,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -511,24 +517,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="7.2" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="37.77734375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="37.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="101.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,14 +549,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="2" t="str">
@@ -557,7 +564,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',0,'0e8585f9d21ef28ead641855bfa39b54.jpg', NOW());</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
@@ -568,11 +575,11 @@
         <v>6</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H33" si="0">"INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('"&amp;E3&amp;"',"&amp;F3&amp;",'"&amp;G3&amp;"', NOW());"</f>
+        <f t="shared" ref="H3:H65" si="0">"INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('"&amp;E3&amp;"',"&amp;F3&amp;",'"&amp;G3&amp;"', NOW());"</f>
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',1,'112ec2c17d02a46060c577e560251555.jpg', NOW());</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
@@ -587,7 +594,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',2,'12c74b69e27265b80536cc47d374270e.jpg', NOW());</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
@@ -602,7 +609,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',3,'178749-beautiful-birds-pretty-bird.jpg', NOW());</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
@@ -617,7 +624,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',4,'272ts.jpg', NOW());</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
@@ -632,7 +639,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',5,'2e9cd69d6fd5c301914b4085e0e996ef.jpg', NOW());</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
@@ -647,7 +654,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',6,'936b143f02cf44bdd38559b57c06e42d.jpg', NOW());</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
@@ -662,7 +669,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',7,'beautiful-bird-macro-wallpaper-hd-1587-wallpaper-high.jpg', NOW());</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
@@ -677,7 +684,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',8,'Beautiful-cute-bird-wide-images.jpg', NOW());</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
@@ -692,7 +699,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',9,'bird-of-paradise.jpg', NOW());</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
@@ -707,7 +714,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',10,'bird-owl.jpg', NOW());</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,7 +729,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',11,'birds-of-prey-wallpapers-11.jpg', NOW());</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,7 +744,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',12,'canary.jpg', NOW());</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
@@ -752,7 +759,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',13,'Chrysolampis_mosquitus.jpg', NOW());</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
@@ -767,7 +774,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',14,'city-birds-orange-crowned-warbler.jpg', NOW());</v>
       </c>
     </row>
-    <row r="17" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E17" s="2" t="s">
         <v>3</v>
       </c>
@@ -782,7 +789,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',15,'Egret3.jpg', NOW());</v>
       </c>
     </row>
-    <row r="18" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E18" s="2" t="s">
         <v>3</v>
       </c>
@@ -797,7 +804,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',16,'eliska_08.jpg', NOW());</v>
       </c>
     </row>
-    <row r="19" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E19" s="2" t="s">
         <v>3</v>
       </c>
@@ -812,7 +819,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',17,'emu.jpg', NOW());</v>
       </c>
     </row>
-    <row r="20" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">
         <v>3</v>
       </c>
@@ -827,7 +834,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',18,'flaming.jpg', NOW());</v>
       </c>
     </row>
-    <row r="21" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E21" s="2" t="s">
         <v>3</v>
       </c>
@@ -842,7 +849,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',19,'Goldfinch.jpg', NOW());</v>
       </c>
     </row>
-    <row r="22" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E22" s="2" t="s">
         <v>3</v>
       </c>
@@ -857,7 +864,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',20,'hawk-on-the-sea-flying_85941-1600x1200.jpg', NOW());</v>
       </c>
     </row>
-    <row r="23" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E23" s="2" t="s">
         <v>3</v>
       </c>
@@ -872,7 +879,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',21,'hooded-warbler-e1446499255827.jpg', NOW());</v>
       </c>
     </row>
-    <row r="24" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E24" s="2" t="s">
         <v>3</v>
       </c>
@@ -887,7 +894,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',22,'INDIAN-ROLLER-Subramanniyan-Mani.jpg', NOW());</v>
       </c>
     </row>
-    <row r="25" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E25" s="2" t="s">
         <v>3</v>
       </c>
@@ -902,7 +909,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',23,'keel_billed_toucan.jpg', NOW());</v>
       </c>
     </row>
-    <row r="26" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E26" s="2" t="s">
         <v>3</v>
       </c>
@@ -917,7 +924,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',24,'Male_adult_Gouldian_Finch.jpg', NOW());</v>
       </c>
     </row>
-    <row r="27" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E27" s="2" t="s">
         <v>3</v>
       </c>
@@ -932,7 +939,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',25,'Male_greater_frigate_bird_displaying.jpg', NOW());</v>
       </c>
     </row>
-    <row r="28" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E28" s="2" t="s">
         <v>3</v>
       </c>
@@ -947,7 +954,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',26,'maxresdefault.jpg', NOW());</v>
       </c>
     </row>
-    <row r="29" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E29" s="2" t="s">
         <v>3</v>
       </c>
@@ -962,7 +969,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',27,'red-nose-stork-bird-white.jpg', NOW());</v>
       </c>
     </row>
-    <row r="30" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E30" s="2" t="s">
         <v>3</v>
       </c>
@@ -977,7 +984,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',28,'resplendent_quetzal.jpg', NOW());</v>
       </c>
     </row>
-    <row r="31" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E31" s="2" t="s">
         <v>3</v>
       </c>
@@ -992,7 +999,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',29,'Rose-breasted_Grosbeak-2752.jpg', NOW());</v>
       </c>
     </row>
-    <row r="32" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1007,7 +1014,7 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',30,'shutterstock_124926872-(1).jpg', NOW());</v>
       </c>
     </row>
-    <row r="33" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E33" s="2" t="s">
         <v>3</v>
       </c>
@@ -1022,10 +1029,392 @@
         <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('birds',31,'shutterstock_57393118-(1).jpg', NOW());</v>
       </c>
     </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',0,'', NOW());</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',1,'', NOW());</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',2,'', NOW());</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="2">
+        <v>3</v>
+      </c>
+      <c r="H37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',3,'', NOW());</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4</v>
+      </c>
+      <c r="H38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',4,'', NOW());</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="2">
+        <v>5</v>
+      </c>
+      <c r="H39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',5,'', NOW());</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="2">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',6,'', NOW());</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="2">
+        <v>7</v>
+      </c>
+      <c r="H41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',7,'', NOW());</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="2">
+        <v>8</v>
+      </c>
+      <c r="H42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',8,'', NOW());</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="2">
+        <v>9</v>
+      </c>
+      <c r="H43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',9,'', NOW());</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="2">
+        <v>10</v>
+      </c>
+      <c r="H44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',10,'', NOW());</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="2">
+        <v>11</v>
+      </c>
+      <c r="H45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',11,'', NOW());</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="2">
+        <v>12</v>
+      </c>
+      <c r="H46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',12,'', NOW());</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="2">
+        <v>13</v>
+      </c>
+      <c r="H47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',13,'', NOW());</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="2">
+        <v>14</v>
+      </c>
+      <c r="H48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',14,'', NOW());</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="2">
+        <v>15</v>
+      </c>
+      <c r="H49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',15,'', NOW());</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="2">
+        <v>16</v>
+      </c>
+      <c r="H50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',16,'', NOW());</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="2">
+        <v>17</v>
+      </c>
+      <c r="H51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',17,'', NOW());</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="2">
+        <v>18</v>
+      </c>
+      <c r="H52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',18,'', NOW());</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="2">
+        <v>19</v>
+      </c>
+      <c r="H53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',19,'', NOW());</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="2">
+        <v>20</v>
+      </c>
+      <c r="H54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',20,'', NOW());</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="2">
+        <v>21</v>
+      </c>
+      <c r="H55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',21,'', NOW());</v>
+      </c>
+    </row>
+    <row r="56" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" s="2">
+        <v>22</v>
+      </c>
+      <c r="H56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',22,'', NOW());</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" s="2">
+        <v>23</v>
+      </c>
+      <c r="H57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',23,'', NOW());</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" s="2">
+        <v>24</v>
+      </c>
+      <c r="H58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',24,'', NOW());</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="2">
+        <v>25</v>
+      </c>
+      <c r="H59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',25,'', NOW());</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="2">
+        <v>26</v>
+      </c>
+      <c r="H60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',26,'', NOW());</v>
+      </c>
+    </row>
+    <row r="61" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="2">
+        <v>27</v>
+      </c>
+      <c r="H61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',27,'', NOW());</v>
+      </c>
+    </row>
+    <row r="62" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="2">
+        <v>28</v>
+      </c>
+      <c r="H62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',28,'', NOW());</v>
+      </c>
+    </row>
+    <row r="63" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="2">
+        <v>29</v>
+      </c>
+      <c r="H63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',29,'', NOW());</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" s="2">
+        <v>30</v>
+      </c>
+      <c r="H64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',30,'', NOW());</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E65" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" s="2">
+        <v>31</v>
+      </c>
+      <c r="H65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',31,'', NOW());</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
+  <autoFilter ref="E1:H65"/>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" display="http://localhost/phpmyadmin/sql.php?db=memory&amp;table=pictures&amp;sql_query=SELECT+%2A+FROM+%60pictures%60%0AORDER+BY+%60pictures%60.%60theme%60+ASC&amp;session_max_rows=30&amp;token=31a2f44e4761847a2b6f8f44af1d0970"/>
     <hyperlink ref="F1" r:id="rId2" display="http://localhost/phpmyadmin/sql.php?db=memory&amp;table=pictures&amp;sql_query=SELECT+%2A+FROM+%60pictures%60%0AORDER+BY+%60pictures%60.%60number%60+ASC&amp;session_max_rows=30&amp;token=31a2f44e4761847a2b6f8f44af1d0970"/>
@@ -1043,7 +1432,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1055,7 +1444,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/pictures_INSERT.xlsx
+++ b/database/pictures_INSERT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t>theme</t>
   </si>
@@ -133,6 +133,102 @@
   </si>
   <si>
     <t>landscapes</t>
+  </si>
+  <si>
+    <t>18mmLandscapephoto.jpg</t>
+  </si>
+  <si>
+    <t>500664-636147302044128379-16x9.jpg</t>
+  </si>
+  <si>
+    <t>5810d439b2e4b.jpg</t>
+  </si>
+  <si>
+    <t>897a6f3870f99abb67e6657a42aac80899b1.jpg</t>
+  </si>
+  <si>
+    <t>at_the_beach_beaches_nature.jpg</t>
+  </si>
+  <si>
+    <t>Autumn-Wallpapers-7.jpg</t>
+  </si>
+  <si>
+    <t>badgleys-landscape-snohomish.jpg</t>
+  </si>
+  <si>
+    <t>Beauty-Autumn-Nature-HD-Wallpaper.jpg</t>
+  </si>
+  <si>
+    <t>Blue-fish-beach-beaches-beautiful-blue-clear-fish-nature-ocean.jpg</t>
+  </si>
+  <si>
+    <t>c746dcde309ff23556f359a4932b8961.jpg</t>
+  </si>
+  <si>
+    <t>clouds-country-daylight-371633.jpg</t>
+  </si>
+  <si>
+    <t>desierto-atacama-12xchile-1.jpg</t>
+  </si>
+  <si>
+    <t>DSCF8436-Modifier_3000.jpg</t>
+  </si>
+  <si>
+    <t>france-1805936_1920.jpg</t>
+  </si>
+  <si>
+    <t>Golden-Fields-Sunset-Juno-Beach-Natural-Area.jpg</t>
+  </si>
+  <si>
+    <t>Grass-nature-view-grass-30826213-1920-1200.jpg</t>
+  </si>
+  <si>
+    <t>iStock-545347988.jpg</t>
+  </si>
+  <si>
+    <t>landscape-photography-lukas-furlan-18.jpg</t>
+  </si>
+  <si>
+    <t>Landscapes-Nature-Fields-Hills-Mist-Wallpaper-1920x1200.jpg</t>
+  </si>
+  <si>
+    <t>malaysia-landscapes_travel_22-08-17.jpg</t>
+  </si>
+  <si>
+    <t>MarkClintonPhotobig-26963.jpg</t>
+  </si>
+  <si>
+    <t>moon-hill-natural-bridge-in-china.jpg</t>
+  </si>
+  <si>
+    <t>Motion-Parallax.jpg</t>
+  </si>
+  <si>
+    <t>Nature-Nevada-Desert-Somewhere-Joshua-Tree.jpg</t>
+  </si>
+  <si>
+    <t>nature-wallpapers-1.jpg</t>
+  </si>
+  <si>
+    <t>Red-Pictures-Wallpapers-003.jpg</t>
+  </si>
+  <si>
+    <t>red-sunset-trees-nature-fields-desktop-wallpaper-hd.jpg</t>
+  </si>
+  <si>
+    <t>red-sunset-trees-nature-fields.jpg</t>
+  </si>
+  <si>
+    <t>Surreal-Landscapes-Wai-O-Tapu-2.jpg</t>
+  </si>
+  <si>
+    <t>tahiti_wallpaper_beaches_nature_1284.jpg</t>
+  </si>
+  <si>
+    <t>tulips-holland-nature-fields.jpg</t>
+  </si>
+  <si>
+    <t>wallpaper.wiki-Landscapes-nature-fields-hay-farming.jpg</t>
   </si>
 </sst>
 </file>
@@ -519,14 +615,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="37.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="101.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
@@ -1036,9 +1132,12 @@
       <c r="F34" s="2">
         <v>0</v>
       </c>
+      <c r="G34" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',0,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',0,'18mmLandscapephoto.jpg', NOW());</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.2">
@@ -1048,9 +1147,12 @@
       <c r="F35" s="2">
         <v>1</v>
       </c>
+      <c r="G35" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',1,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',1,'500664-636147302044128379-16x9.jpg', NOW());</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.2">
@@ -1060,9 +1162,12 @@
       <c r="F36" s="2">
         <v>2</v>
       </c>
+      <c r="G36" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',2,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',2,'5810d439b2e4b.jpg', NOW());</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.2">
@@ -1072,9 +1177,12 @@
       <c r="F37" s="2">
         <v>3</v>
       </c>
+      <c r="G37" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',3,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',3,'897a6f3870f99abb67e6657a42aac80899b1.jpg', NOW());</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.2">
@@ -1084,9 +1192,12 @@
       <c r="F38" s="2">
         <v>4</v>
       </c>
+      <c r="G38" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H38" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',4,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',4,'at_the_beach_beaches_nature.jpg', NOW());</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.2">
@@ -1096,9 +1207,12 @@
       <c r="F39" s="2">
         <v>5</v>
       </c>
+      <c r="G39" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',5,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',5,'Autumn-Wallpapers-7.jpg', NOW());</v>
       </c>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.2">
@@ -1108,9 +1222,12 @@
       <c r="F40" s="2">
         <v>6</v>
       </c>
+      <c r="G40" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H40" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',6,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',6,'badgleys-landscape-snohomish.jpg', NOW());</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.2">
@@ -1120,9 +1237,12 @@
       <c r="F41" s="2">
         <v>7</v>
       </c>
+      <c r="G41" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',7,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',7,'Beauty-Autumn-Nature-HD-Wallpaper.jpg', NOW());</v>
       </c>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.2">
@@ -1132,9 +1252,12 @@
       <c r="F42" s="2">
         <v>8</v>
       </c>
+      <c r="G42" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',8,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',8,'Blue-fish-beach-beaches-beautiful-blue-clear-fish-nature-ocean.jpg', NOW());</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.2">
@@ -1144,9 +1267,12 @@
       <c r="F43" s="2">
         <v>9</v>
       </c>
+      <c r="G43" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H43" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',9,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',9,'c746dcde309ff23556f359a4932b8961.jpg', NOW());</v>
       </c>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.2">
@@ -1156,9 +1282,12 @@
       <c r="F44" s="2">
         <v>10</v>
       </c>
+      <c r="G44" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H44" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',10,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',10,'clouds-country-daylight-371633.jpg', NOW());</v>
       </c>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.2">
@@ -1168,9 +1297,12 @@
       <c r="F45" s="2">
         <v>11</v>
       </c>
+      <c r="G45" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H45" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',11,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',11,'desierto-atacama-12xchile-1.jpg', NOW());</v>
       </c>
     </row>
     <row r="46" spans="5:8" x14ac:dyDescent="0.2">
@@ -1180,9 +1312,12 @@
       <c r="F46" s="2">
         <v>12</v>
       </c>
+      <c r="G46" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H46" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',12,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',12,'DSCF8436-Modifier_3000.jpg', NOW());</v>
       </c>
     </row>
     <row r="47" spans="5:8" x14ac:dyDescent="0.2">
@@ -1192,9 +1327,12 @@
       <c r="F47" s="2">
         <v>13</v>
       </c>
+      <c r="G47" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H47" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',13,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',13,'france-1805936_1920.jpg', NOW());</v>
       </c>
     </row>
     <row r="48" spans="5:8" x14ac:dyDescent="0.2">
@@ -1204,9 +1342,12 @@
       <c r="F48" s="2">
         <v>14</v>
       </c>
+      <c r="G48" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H48" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',14,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',14,'Golden-Fields-Sunset-Juno-Beach-Natural-Area.jpg', NOW());</v>
       </c>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.2">
@@ -1216,9 +1357,12 @@
       <c r="F49" s="2">
         <v>15</v>
       </c>
+      <c r="G49" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="H49" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',15,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',15,'Grass-nature-view-grass-30826213-1920-1200.jpg', NOW());</v>
       </c>
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.2">
@@ -1228,9 +1372,12 @@
       <c r="F50" s="2">
         <v>16</v>
       </c>
+      <c r="G50" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="H50" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',16,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',16,'iStock-545347988.jpg', NOW());</v>
       </c>
     </row>
     <row r="51" spans="5:8" x14ac:dyDescent="0.2">
@@ -1240,9 +1387,12 @@
       <c r="F51" s="2">
         <v>17</v>
       </c>
+      <c r="G51" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H51" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',17,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',17,'landscape-photography-lukas-furlan-18.jpg', NOW());</v>
       </c>
     </row>
     <row r="52" spans="5:8" x14ac:dyDescent="0.2">
@@ -1252,9 +1402,12 @@
       <c r="F52" s="2">
         <v>18</v>
       </c>
+      <c r="G52" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="H52" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',18,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',18,'Landscapes-Nature-Fields-Hills-Mist-Wallpaper-1920x1200.jpg', NOW());</v>
       </c>
     </row>
     <row r="53" spans="5:8" x14ac:dyDescent="0.2">
@@ -1264,9 +1417,12 @@
       <c r="F53" s="2">
         <v>19</v>
       </c>
+      <c r="G53" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H53" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',19,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',19,'malaysia-landscapes_travel_22-08-17.jpg', NOW());</v>
       </c>
     </row>
     <row r="54" spans="5:8" x14ac:dyDescent="0.2">
@@ -1276,9 +1432,12 @@
       <c r="F54" s="2">
         <v>20</v>
       </c>
+      <c r="G54" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H54" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',20,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',20,'MarkClintonPhotobig-26963.jpg', NOW());</v>
       </c>
     </row>
     <row r="55" spans="5:8" x14ac:dyDescent="0.2">
@@ -1288,9 +1447,12 @@
       <c r="F55" s="2">
         <v>21</v>
       </c>
+      <c r="G55" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H55" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',21,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',21,'moon-hill-natural-bridge-in-china.jpg', NOW());</v>
       </c>
     </row>
     <row r="56" spans="5:8" x14ac:dyDescent="0.2">
@@ -1300,9 +1462,12 @@
       <c r="F56" s="2">
         <v>22</v>
       </c>
+      <c r="G56" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="H56" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',22,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',22,'Motion-Parallax.jpg', NOW());</v>
       </c>
     </row>
     <row r="57" spans="5:8" x14ac:dyDescent="0.2">
@@ -1312,9 +1477,12 @@
       <c r="F57" s="2">
         <v>23</v>
       </c>
+      <c r="G57" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H57" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',23,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',23,'Nature-Nevada-Desert-Somewhere-Joshua-Tree.jpg', NOW());</v>
       </c>
     </row>
     <row r="58" spans="5:8" x14ac:dyDescent="0.2">
@@ -1324,9 +1492,12 @@
       <c r="F58" s="2">
         <v>24</v>
       </c>
+      <c r="G58" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H58" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',24,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',24,'nature-wallpapers-1.jpg', NOW());</v>
       </c>
     </row>
     <row r="59" spans="5:8" x14ac:dyDescent="0.2">
@@ -1336,9 +1507,12 @@
       <c r="F59" s="2">
         <v>25</v>
       </c>
+      <c r="G59" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="H59" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',25,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',25,'Red-Pictures-Wallpapers-003.jpg', NOW());</v>
       </c>
     </row>
     <row r="60" spans="5:8" x14ac:dyDescent="0.2">
@@ -1348,9 +1522,12 @@
       <c r="F60" s="2">
         <v>26</v>
       </c>
+      <c r="G60" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H60" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',26,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',26,'red-sunset-trees-nature-fields-desktop-wallpaper-hd.jpg', NOW());</v>
       </c>
     </row>
     <row r="61" spans="5:8" x14ac:dyDescent="0.2">
@@ -1360,9 +1537,12 @@
       <c r="F61" s="2">
         <v>27</v>
       </c>
+      <c r="G61" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="H61" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',27,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',27,'red-sunset-trees-nature-fields.jpg', NOW());</v>
       </c>
     </row>
     <row r="62" spans="5:8" x14ac:dyDescent="0.2">
@@ -1372,9 +1552,12 @@
       <c r="F62" s="2">
         <v>28</v>
       </c>
+      <c r="G62" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="H62" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',28,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',28,'Surreal-Landscapes-Wai-O-Tapu-2.jpg', NOW());</v>
       </c>
     </row>
     <row r="63" spans="5:8" x14ac:dyDescent="0.2">
@@ -1384,9 +1567,12 @@
       <c r="F63" s="2">
         <v>29</v>
       </c>
+      <c r="G63" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="H63" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',29,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',29,'tahiti_wallpaper_beaches_nature_1284.jpg', NOW());</v>
       </c>
     </row>
     <row r="64" spans="5:8" x14ac:dyDescent="0.2">
@@ -1396,9 +1582,12 @@
       <c r="F64" s="2">
         <v>30</v>
       </c>
+      <c r="G64" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="H64" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',30,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',30,'tulips-holland-nature-fields.jpg', NOW());</v>
       </c>
     </row>
     <row r="65" spans="5:8" x14ac:dyDescent="0.2">
@@ -1408,9 +1597,12 @@
       <c r="F65" s="2">
         <v>31</v>
       </c>
+      <c r="G65" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="H65" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',31,'', NOW());</v>
+        <v>INSERT INTO pictures (theme, number, img_src, created_at) VALUES ('landscapes',31,'wallpaper.wiki-Landscapes-nature-fields-hay-farming.jpg', NOW());</v>
       </c>
     </row>
   </sheetData>
